--- a/exploratory-testing.xlsx
+++ b/exploratory-testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t xml:space="preserve"> Exploratory Testing Report for Jumia Website</t>
   </si>
@@ -247,13 +247,16 @@
   </si>
   <si>
     <t>Further testing could explore edge cases or additional functionalities not covered in this round.</t>
+  </si>
+  <si>
+    <t>click to see PDF version of this spreadsheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -304,6 +307,10 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -372,6 +379,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1809,6 +1819,9 @@
       <c r="C39" s="15"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="C40" s="15"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4707,6 +4720,9 @@
       <c r="C1005" s="15"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A40"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>